--- a/Code/Results/Cases/Case_2_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_238/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.60844734929225</v>
+        <v>26.5325808198159</v>
       </c>
       <c r="C2">
-        <v>17.90296195367396</v>
+        <v>10.87194340893262</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.239792891305132</v>
+        <v>8.508707568532952</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.105512064821073</v>
+        <v>3.754285107724709</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.17598538585079</v>
+        <v>10.10588601429479</v>
       </c>
       <c r="M2">
-        <v>15.89581005778272</v>
+        <v>19.99784917743138</v>
       </c>
       <c r="N2">
-        <v>16.38863285765722</v>
+        <v>22.78493605613365</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.85660970696004</v>
+        <v>26.15954974725561</v>
       </c>
       <c r="C3">
-        <v>16.56533487292802</v>
+        <v>10.35922384877414</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.072095169835765</v>
+        <v>8.468465003891037</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.120579408507123</v>
+        <v>3.759250733307188</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.109741998795545</v>
+        <v>10.12075865247675</v>
       </c>
       <c r="M3">
-        <v>15.23188115512623</v>
+        <v>19.93572695825971</v>
       </c>
       <c r="N3">
-        <v>16.48676623679948</v>
+        <v>22.81166820434175</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.75677933529434</v>
+        <v>25.93638612204292</v>
       </c>
       <c r="C4">
-        <v>15.70893902278544</v>
+        <v>10.03496306661431</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.96886220380697</v>
+        <v>8.443150268554952</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.129967069884348</v>
+        <v>3.762452321319787</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.072771857512491</v>
+        <v>10.1314124704953</v>
       </c>
       <c r="M4">
-        <v>14.82663924345446</v>
+        <v>19.90237546946706</v>
       </c>
       <c r="N4">
-        <v>16.55350651033566</v>
+        <v>22.82988578879255</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.30267776531724</v>
+        <v>25.84703341556853</v>
       </c>
       <c r="C5">
-        <v>15.35084883030677</v>
+        <v>9.900656208878161</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.926680755449</v>
+        <v>8.432682140860797</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.133832611828081</v>
+        <v>3.763795556619814</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.058605215097575</v>
+        <v>10.13613645928734</v>
       </c>
       <c r="M5">
-        <v>14.66220348102772</v>
+        <v>19.88999585225228</v>
       </c>
       <c r="N5">
-        <v>16.58223343220411</v>
+        <v>22.83776156933077</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.2269250407818</v>
+        <v>25.83229553801356</v>
       </c>
       <c r="C6">
-        <v>15.29083094049249</v>
+        <v>9.878230369426666</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.919668519776792</v>
+        <v>8.430934729211796</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.134477053992302</v>
+        <v>3.764020933892088</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.056306238550309</v>
+        <v>10.13694396661659</v>
       </c>
       <c r="M6">
-        <v>14.63494501586607</v>
+        <v>19.88801355277494</v>
       </c>
       <c r="N6">
-        <v>16.58709316688472</v>
+        <v>22.8390965861841</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.75067877700389</v>
+        <v>25.93517450658805</v>
       </c>
       <c r="C7">
-        <v>15.7041468925157</v>
+        <v>10.03316023909129</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.968293843693643</v>
+        <v>8.443009707693818</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323728</v>
       </c>
       <c r="G7">
-        <v>2.130019032856483</v>
+        <v>3.762470280295923</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.072577202686398</v>
+        <v>10.13147463157878</v>
       </c>
       <c r="M7">
-        <v>14.82441860382461</v>
+        <v>19.9022036012156</v>
       </c>
       <c r="N7">
-        <v>16.55388786318138</v>
+        <v>22.8299901764831</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.00949826760138</v>
+        <v>26.40280652250587</v>
       </c>
       <c r="C8">
-        <v>17.4488522071292</v>
+        <v>10.69723484619459</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.181995325339061</v>
+        <v>8.494957701935297</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344769</v>
       </c>
       <c r="G8">
-        <v>2.110682654883723</v>
+        <v>3.755965671300774</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.152355930567207</v>
+        <v>10.11069808518524</v>
       </c>
       <c r="M8">
-        <v>15.6664333108592</v>
+        <v>19.97543916197705</v>
       </c>
       <c r="N8">
-        <v>16.42105835013059</v>
+        <v>22.79377790053795</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.24649628049478</v>
+        <v>27.36150287516772</v>
       </c>
       <c r="C9">
-        <v>20.60631953506229</v>
+        <v>11.91677023926329</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.601566317680942</v>
+        <v>8.592019561776347</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>2.073549066106535</v>
+        <v>3.744413731916017</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.339777000246946</v>
+        <v>10.08204144435734</v>
       </c>
       <c r="M9">
-        <v>17.33468484727624</v>
+        <v>20.15673335409972</v>
       </c>
       <c r="N9">
-        <v>16.21731001586238</v>
+        <v>22.73715384704517</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.41817719345822</v>
+        <v>28.08448085363</v>
       </c>
       <c r="C10">
-        <v>22.78896847668027</v>
+        <v>12.75372766523201</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.914771488732947</v>
+        <v>8.6604010657814</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.046261586280454</v>
+        <v>3.736649289934628</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.49887126639685</v>
+        <v>10.06836832274663</v>
       </c>
       <c r="M10">
-        <v>18.57184583729136</v>
+        <v>20.31236146263987</v>
       </c>
       <c r="N10">
-        <v>16.11084271659947</v>
+        <v>22.70442739822353</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.86120452488994</v>
+        <v>28.4159816863863</v>
       </c>
       <c r="C11">
-        <v>23.75866578048824</v>
+        <v>13.12028078976924</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.059725733873757</v>
+        <v>8.69087387557674</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.033712979118552</v>
+        <v>3.733271629457257</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.576570635769007</v>
+        <v>10.063752710096</v>
       </c>
       <c r="M11">
-        <v>19.27695786975513</v>
+        <v>20.38789035102235</v>
       </c>
       <c r="N11">
-        <v>16.07418793070169</v>
+        <v>22.69148904841749</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.40407324283466</v>
+        <v>28.54176936896631</v>
       </c>
       <c r="C12">
-        <v>24.12319826726417</v>
+        <v>13.2569545653075</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.115123905016279</v>
+        <v>8.702321835748926</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.028927912436504</v>
+        <v>3.732014619839113</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.606828663101765</v>
+        <v>10.06223565608888</v>
       </c>
       <c r="M12">
-        <v>19.56683163144304</v>
+        <v>20.41715788013508</v>
       </c>
       <c r="N12">
-        <v>16.0622479588334</v>
+        <v>22.68687177828972</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.28730101601477</v>
+        <v>28.51466926711071</v>
       </c>
       <c r="C13">
-        <v>24.04479647296446</v>
+        <v>13.22761554811175</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.103167565680077</v>
+        <v>8.699860382663912</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.029960185346504</v>
+        <v>3.73228436193271</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.600273670031592</v>
+        <v>10.0625521162573</v>
       </c>
       <c r="M13">
-        <v>19.50450767122263</v>
+        <v>20.4108251946902</v>
       </c>
       <c r="N13">
-        <v>16.06472871738865</v>
+        <v>22.68785360815004</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.90593306744415</v>
+        <v>28.42632587468568</v>
       </c>
       <c r="C14">
-        <v>23.78870534455847</v>
+        <v>13.13156822490637</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.064272216444987</v>
+        <v>8.691817539832586</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.033320061949039</v>
+        <v>3.733167773830303</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.579042802790005</v>
+        <v>10.06362327576968</v>
       </c>
       <c r="M14">
-        <v>19.30085429660871</v>
+        <v>20.39028493836955</v>
       </c>
       <c r="N14">
-        <v>16.07316515518544</v>
+        <v>22.69110351600294</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.67189549593806</v>
+        <v>28.37224273963597</v>
       </c>
       <c r="C15">
-        <v>23.6315162375442</v>
+        <v>13.072456348462</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.040518832738213</v>
+        <v>8.686879152740797</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.035373309708659</v>
+        <v>3.733711753995558</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.566149304856721</v>
+        <v>10.06430944735781</v>
       </c>
       <c r="M15">
-        <v>19.17579261147628</v>
+        <v>20.37778977975461</v>
       </c>
       <c r="N15">
-        <v>16.07859352077147</v>
+        <v>22.6931309868248</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.3233243642029</v>
+        <v>28.06285875329699</v>
       </c>
       <c r="C16">
-        <v>22.72518369410797</v>
+        <v>12.7294788932259</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.905360339637853</v>
+        <v>8.658396813539641</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.047077829296224</v>
+        <v>3.736873120954865</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.493906209682137</v>
+        <v>10.06870225513717</v>
       </c>
       <c r="M16">
-        <v>18.53489984898678</v>
+        <v>20.30751952137569</v>
       </c>
       <c r="N16">
-        <v>16.11349527452199</v>
+        <v>22.70531233468944</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.48874782678929</v>
+        <v>27.87364489726824</v>
       </c>
       <c r="C17">
-        <v>22.16367141261422</v>
+        <v>12.51536983570059</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.823176020821407</v>
+        <v>8.640761207248111</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.05421452906484</v>
+        <v>3.738851948608838</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.450996701149841</v>
+        <v>10.0718080836572</v>
       </c>
       <c r="M17">
-        <v>18.2115881836099</v>
+        <v>20.26561345310355</v>
       </c>
       <c r="N17">
-        <v>16.13808484647894</v>
+        <v>22.71328576975852</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.00580549168141</v>
+        <v>27.76506726585598</v>
       </c>
       <c r="C18">
-        <v>21.83847430712265</v>
+        <v>12.39088943308716</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.776127926280617</v>
+        <v>8.63055798476519</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.058307582661057</v>
+        <v>3.740004663072678</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.426812832207533</v>
+        <v>10.07374548280177</v>
       </c>
       <c r="M18">
-        <v>18.02599141924206</v>
+        <v>20.24195659666517</v>
       </c>
       <c r="N18">
-        <v>16.15331953869533</v>
+        <v>22.71805521911681</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.84176756451124</v>
+        <v>27.72835193747437</v>
       </c>
       <c r="C19">
-        <v>21.72796682951526</v>
+        <v>12.34851706580842</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.760232350108161</v>
+        <v>8.627093104324107</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.059691772422362</v>
+        <v>3.740397455660881</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.418707981828951</v>
+        <v>10.07442738566657</v>
       </c>
       <c r="M19">
-        <v>17.96320848500772</v>
+        <v>20.23402387630836</v>
       </c>
       <c r="N19">
-        <v>16.15865838833745</v>
+        <v>22.71970150299151</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.57788657554189</v>
+        <v>27.89376171310379</v>
       </c>
       <c r="C20">
-        <v>22.22367173258479</v>
+        <v>12.53830053549523</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.831900705036502</v>
+        <v>8.642644726767092</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>2.053456126248405</v>
+        <v>3.738639794883552</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.455512643719579</v>
+        <v>10.0714618333898</v>
       </c>
       <c r="M20">
-        <v>18.24596626882891</v>
+        <v>20.27002832364998</v>
       </c>
       <c r="N20">
-        <v>16.13535264069305</v>
+        <v>22.71241799503484</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.01803980776135</v>
+        <v>28.4522684831659</v>
       </c>
       <c r="C21">
-        <v>23.86399205913694</v>
+        <v>13.15983817169666</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.075681575662912</v>
+        <v>8.69418240092053</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>2.032334207946005</v>
+        <v>3.732907697606802</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.585255542909783</v>
+        <v>10.06330238666582</v>
       </c>
       <c r="M21">
-        <v>19.3607375771427</v>
+        <v>20.39630014295758</v>
       </c>
       <c r="N21">
-        <v>16.07063231045326</v>
+        <v>22.69014126497528</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.59250201182284</v>
+        <v>28.81872037302634</v>
       </c>
       <c r="C22">
-        <v>24.92087692162232</v>
+        <v>13.55359006523871</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.238060556313497</v>
+        <v>8.727332217326721</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>2.018327961259208</v>
+        <v>3.729289811334968</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.674959772849297</v>
+        <v>10.05931486709932</v>
       </c>
       <c r="M22">
-        <v>20.20026785507147</v>
+        <v>20.48270288054509</v>
       </c>
       <c r="N22">
-        <v>16.03979395165631</v>
+        <v>22.67722792663474</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.75372660978402</v>
+        <v>28.62304585207984</v>
       </c>
       <c r="C23">
-        <v>24.35792947972198</v>
+        <v>13.34460386689089</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.151056548708307</v>
+        <v>8.709688381498351</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>2.02582709702019</v>
+        <v>3.731209055193443</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.626607033164301</v>
+        <v>10.0613199889217</v>
       </c>
       <c r="M23">
-        <v>19.75335792808195</v>
+        <v>20.43623836212789</v>
       </c>
       <c r="N23">
-        <v>16.05511021510343</v>
+        <v>22.68396878830435</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.53759676328215</v>
+        <v>27.88466625628743</v>
       </c>
       <c r="C24">
-        <v>22.1965530373374</v>
+        <v>12.52793787681247</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.827955660713619</v>
+        <v>8.641793387785592</v>
       </c>
       <c r="F24">
-        <v>36.85121910575438</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>2.053799030102129</v>
+        <v>3.738735662661301</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.453469479240058</v>
+        <v>10.0716179002659</v>
       </c>
       <c r="M24">
-        <v>18.23042308217354</v>
+        <v>20.26803100312557</v>
       </c>
       <c r="N24">
-        <v>16.13658446969883</v>
+        <v>22.71280973860588</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.12041681532881</v>
+        <v>27.09838626738275</v>
       </c>
       <c r="C25">
-        <v>19.77816207979826</v>
+        <v>11.59668655509079</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.487588744051028</v>
+        <v>8.56627633706456</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.08355610264432</v>
+        <v>3.74741111976862</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.285518695895037</v>
+        <v>10.08849840799328</v>
       </c>
       <c r="M25">
-        <v>16.88164762848153</v>
+        <v>20.10370514512346</v>
       </c>
       <c r="N25">
-        <v>16.26554707525251</v>
+        <v>22.75092111551031</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_238/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.5325808198159</v>
+        <v>28.60844734929231</v>
       </c>
       <c r="C2">
-        <v>10.87194340893262</v>
+        <v>17.90296195367388</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.508707568532952</v>
+        <v>6.239792891305134</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.754285107724709</v>
+        <v>2.105512064820948</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.10588601429479</v>
+        <v>6.17598538585082</v>
       </c>
       <c r="M2">
-        <v>19.99784917743138</v>
+        <v>15.89581005778275</v>
       </c>
       <c r="N2">
-        <v>22.78493605613365</v>
+        <v>16.38863285765722</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.15954974725561</v>
+        <v>26.85660970696004</v>
       </c>
       <c r="C3">
-        <v>10.35922384877414</v>
+        <v>16.56533487292781</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.468465003891037</v>
+        <v>6.0720951698357</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.759250733307188</v>
+        <v>2.120579408507124</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.12075865247675</v>
+        <v>6.109741998795644</v>
       </c>
       <c r="M3">
-        <v>19.93572695825971</v>
+        <v>15.23188115512625</v>
       </c>
       <c r="N3">
-        <v>22.81166820434175</v>
+        <v>16.48676623679953</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.93638612204292</v>
+        <v>25.75677933529432</v>
       </c>
       <c r="C4">
-        <v>10.03496306661431</v>
+        <v>15.70893902278547</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.443150268554952</v>
+        <v>5.968862203807032</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.762452321319787</v>
+        <v>2.129967069884749</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.1314124704953</v>
+        <v>6.072771857512436</v>
       </c>
       <c r="M4">
-        <v>19.90237546946706</v>
+        <v>14.82663924345443</v>
       </c>
       <c r="N4">
-        <v>22.82988578879255</v>
+        <v>16.55350651033564</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.84703341556853</v>
+        <v>25.30267776531725</v>
       </c>
       <c r="C5">
-        <v>9.900656208878161</v>
+        <v>15.35084883030695</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.432682140860797</v>
+        <v>5.926680755449199</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.763795556619814</v>
+        <v>2.133832611827942</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.13613645928734</v>
+        <v>6.058605215097606</v>
       </c>
       <c r="M5">
-        <v>19.88999585225228</v>
+        <v>14.66220348102768</v>
       </c>
       <c r="N5">
-        <v>22.83776156933077</v>
+        <v>16.58223343220403</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.83229553801356</v>
+        <v>25.22692504078179</v>
       </c>
       <c r="C6">
-        <v>9.878230369426666</v>
+        <v>15.29083094049247</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.430934729211796</v>
+        <v>5.919668519776931</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.764020933892088</v>
+        <v>2.134477053992424</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.13694396661659</v>
+        <v>6.056306238550382</v>
       </c>
       <c r="M6">
-        <v>19.88801355277494</v>
+        <v>14.63494501586607</v>
       </c>
       <c r="N6">
-        <v>22.8390965861841</v>
+        <v>16.58709316688473</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.93517450658805</v>
+        <v>25.75067877700386</v>
       </c>
       <c r="C7">
-        <v>10.03316023909129</v>
+        <v>15.7041468925157</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.443009707693818</v>
+        <v>5.968293843693701</v>
       </c>
       <c r="F7">
-        <v>15.26647399323728</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.762470280295923</v>
+        <v>2.130019032856354</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.13147463157878</v>
+        <v>6.072577202686421</v>
       </c>
       <c r="M7">
-        <v>19.9022036012156</v>
+        <v>14.82441860382459</v>
       </c>
       <c r="N7">
-        <v>22.8299901764831</v>
+        <v>16.55388786318141</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.40280652250587</v>
+        <v>28.00949826760133</v>
       </c>
       <c r="C8">
-        <v>10.69723484619459</v>
+        <v>17.4488522071291</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.494957701935297</v>
+        <v>6.181995325339058</v>
       </c>
       <c r="F8">
-        <v>16.53996406344769</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.755965671300774</v>
+        <v>2.11068265488372</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.11069808518524</v>
+        <v>6.152355930567253</v>
       </c>
       <c r="M8">
-        <v>19.97543916197705</v>
+        <v>15.66643331085922</v>
       </c>
       <c r="N8">
-        <v>22.79377790053795</v>
+        <v>16.42105835013063</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.36150287516772</v>
+        <v>32.2464962804947</v>
       </c>
       <c r="C9">
-        <v>11.91677023926329</v>
+        <v>20.60631953506227</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.592019561776347</v>
+        <v>6.601566317680946</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.744413731916017</v>
+        <v>2.073549066106673</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.08204144435734</v>
+        <v>6.339777000246921</v>
       </c>
       <c r="M9">
-        <v>20.15673335409972</v>
+        <v>17.33468484727626</v>
       </c>
       <c r="N9">
-        <v>22.73715384704517</v>
+        <v>16.21731001586245</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.08448085363</v>
+        <v>35.41817719345823</v>
       </c>
       <c r="C10">
-        <v>12.75372766523201</v>
+        <v>22.7889684766803</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.6604010657814</v>
+        <v>6.914771488732955</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.736649289934628</v>
+        <v>2.046261586280587</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.06836832274663</v>
+        <v>6.498871266396836</v>
       </c>
       <c r="M10">
-        <v>20.31236146263987</v>
+        <v>18.57184583729136</v>
       </c>
       <c r="N10">
-        <v>22.70442739822353</v>
+        <v>16.11084271659948</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.4159816863863</v>
+        <v>36.86120452489008</v>
       </c>
       <c r="C11">
-        <v>13.12028078976924</v>
+        <v>23.75866578048827</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.69087387557674</v>
+        <v>7.05972573387383</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.733271629457257</v>
+        <v>2.033712979118427</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.063752710096</v>
+        <v>6.576570635769027</v>
       </c>
       <c r="M11">
-        <v>20.38789035102235</v>
+        <v>19.27695786975517</v>
       </c>
       <c r="N11">
-        <v>22.69148904841749</v>
+        <v>16.07418793070167</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.54176936896631</v>
+        <v>37.40407324283473</v>
       </c>
       <c r="C12">
-        <v>13.2569545653075</v>
+        <v>24.12319826726424</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.702321835748926</v>
+        <v>7.115123905016285</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.732014619839113</v>
+        <v>2.028927912436639</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.06223565608888</v>
+        <v>6.606828663101756</v>
       </c>
       <c r="M12">
-        <v>20.41715788013508</v>
+        <v>19.56683163144307</v>
       </c>
       <c r="N12">
-        <v>22.68687177828972</v>
+        <v>16.06224795883338</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.51466926711071</v>
+        <v>37.28730101601466</v>
       </c>
       <c r="C13">
-        <v>13.22761554811175</v>
+        <v>24.04479647296436</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.699860382663912</v>
+        <v>7.103167565680078</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.73228436193271</v>
+        <v>2.029960185346768</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.0625521162573</v>
+        <v>6.600273670031585</v>
       </c>
       <c r="M13">
-        <v>20.4108251946902</v>
+        <v>19.50450767122256</v>
       </c>
       <c r="N13">
-        <v>22.68785360815004</v>
+        <v>16.06472871738872</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.42632587468568</v>
+        <v>36.90593306744414</v>
       </c>
       <c r="C14">
-        <v>13.13156822490637</v>
+        <v>23.78870534455848</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.691817539832586</v>
+        <v>7.064272216444924</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.733167773830303</v>
+        <v>2.033320061949045</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.06362327576968</v>
+        <v>6.579042802789969</v>
       </c>
       <c r="M14">
-        <v>20.39028493836955</v>
+        <v>19.30085429660872</v>
       </c>
       <c r="N14">
-        <v>22.69110351600294</v>
+        <v>16.07316515518548</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.37224273963597</v>
+        <v>36.67189549593802</v>
       </c>
       <c r="C15">
-        <v>13.072456348462</v>
+        <v>23.63151623754419</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.686879152740797</v>
+        <v>7.040518832738144</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.733711753995558</v>
+        <v>2.03537330970853</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.06430944735781</v>
+        <v>6.566149304856733</v>
       </c>
       <c r="M15">
-        <v>20.37778977975461</v>
+        <v>19.17579261147629</v>
       </c>
       <c r="N15">
-        <v>22.6931309868248</v>
+        <v>16.0785935207714</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.06285875329699</v>
+        <v>35.32332436420301</v>
       </c>
       <c r="C16">
-        <v>12.7294788932259</v>
+        <v>22.72518369410796</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.658396813539641</v>
+        <v>6.90536033963798</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.736873120954865</v>
+        <v>2.04707782929623</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.06870225513717</v>
+        <v>6.49390620968213</v>
       </c>
       <c r="M16">
-        <v>20.30751952137569</v>
+        <v>18.53489984898679</v>
       </c>
       <c r="N16">
-        <v>22.70531233468944</v>
+        <v>16.11349527452202</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.87364489726824</v>
+        <v>34.48874782678939</v>
       </c>
       <c r="C17">
-        <v>12.51536983570059</v>
+        <v>22.16367141261425</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.640761207248111</v>
+        <v>6.82317602082128</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.738851948608838</v>
+        <v>2.054214529064717</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.0718080836572</v>
+        <v>6.450996701149819</v>
       </c>
       <c r="M17">
-        <v>20.26561345310355</v>
+        <v>18.2115881836099</v>
       </c>
       <c r="N17">
-        <v>22.71328576975852</v>
+        <v>16.13808484647895</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.76506726585598</v>
+        <v>34.00580549168129</v>
       </c>
       <c r="C18">
-        <v>12.39088943308716</v>
+        <v>21.83847430712258</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.63055798476519</v>
+        <v>6.776127926280489</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.740004663072678</v>
+        <v>2.058307582660797</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.07374548280177</v>
+        <v>6.426812832207514</v>
       </c>
       <c r="M18">
-        <v>20.24195659666517</v>
+        <v>18.02599141924207</v>
       </c>
       <c r="N18">
-        <v>22.71805521911681</v>
+        <v>16.15331953869543</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.72835193747437</v>
+        <v>33.84176756451104</v>
       </c>
       <c r="C19">
-        <v>12.34851706580842</v>
+        <v>21.72796682951532</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.627093104324107</v>
+        <v>6.760232350108099</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>3.740397455660881</v>
+        <v>2.059691772422083</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.07442738566657</v>
+        <v>6.418707981828876</v>
       </c>
       <c r="M19">
-        <v>20.23402387630836</v>
+        <v>17.9632084850077</v>
       </c>
       <c r="N19">
-        <v>22.71970150299151</v>
+        <v>16.1586583883375</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.89376171310379</v>
+        <v>34.5778865755419</v>
       </c>
       <c r="C20">
-        <v>12.53830053549523</v>
+        <v>22.22367173258481</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.642644726767092</v>
+        <v>6.831900705036506</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.738639794883552</v>
+        <v>2.053456126248538</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.0714618333898</v>
+        <v>6.455512643719585</v>
       </c>
       <c r="M20">
-        <v>20.27002832364998</v>
+        <v>18.24596626882892</v>
       </c>
       <c r="N20">
-        <v>22.71241799503484</v>
+        <v>16.13535264069307</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.4522684831659</v>
+        <v>37.01803980776152</v>
       </c>
       <c r="C21">
-        <v>13.15983817169666</v>
+        <v>23.86399205913704</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.69418240092053</v>
+        <v>7.075681575663043</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.732907697606802</v>
+        <v>2.032334207945998</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.06330238666582</v>
+        <v>6.585255542909778</v>
       </c>
       <c r="M21">
-        <v>20.39630014295758</v>
+        <v>19.36073757714278</v>
       </c>
       <c r="N21">
-        <v>22.69014126497528</v>
+        <v>16.07063231045317</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.81872037302634</v>
+        <v>38.59250201182306</v>
       </c>
       <c r="C22">
-        <v>13.55359006523871</v>
+        <v>24.92087692162233</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.727332217326721</v>
+        <v>7.238060556313446</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026779</v>
       </c>
       <c r="G22">
-        <v>3.729289811334968</v>
+        <v>2.018327961259208</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.05931486709932</v>
+        <v>6.674959772849269</v>
       </c>
       <c r="M22">
-        <v>20.48270288054509</v>
+        <v>20.20026785507159</v>
       </c>
       <c r="N22">
-        <v>22.67722792663474</v>
+        <v>16.03979395165624</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.62304585207984</v>
+        <v>37.7537266097842</v>
       </c>
       <c r="C23">
-        <v>13.34460386689089</v>
+        <v>24.3579294797221</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.709688381498351</v>
+        <v>7.151056548708359</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>3.731209055193443</v>
+        <v>2.025827097020057</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.0613199889217</v>
+        <v>6.62660703316426</v>
       </c>
       <c r="M23">
-        <v>20.43623836212789</v>
+        <v>19.75335792808207</v>
       </c>
       <c r="N23">
-        <v>22.68396878830435</v>
+        <v>16.05511021510338</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.88466625628743</v>
+        <v>34.53759676328206</v>
       </c>
       <c r="C24">
-        <v>12.52793787681247</v>
+        <v>22.19655303733727</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.641793387785592</v>
+        <v>6.827955660713678</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575432</v>
       </c>
       <c r="G24">
-        <v>3.738735662661301</v>
+        <v>2.053799030102258</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.0716179002659</v>
+        <v>6.453469479240124</v>
       </c>
       <c r="M24">
-        <v>20.26803100312557</v>
+        <v>18.23042308217353</v>
       </c>
       <c r="N24">
-        <v>22.71280973860588</v>
+        <v>16.13658446969893</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.09838626738275</v>
+        <v>31.12041681532885</v>
       </c>
       <c r="C25">
-        <v>11.59668655509079</v>
+        <v>19.77816207979834</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.56627633706456</v>
+        <v>6.487588744051087</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459127059</v>
       </c>
       <c r="G25">
-        <v>3.74741111976862</v>
+        <v>2.08355610264459</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.08849840799328</v>
+        <v>6.285518695895047</v>
       </c>
       <c r="M25">
-        <v>20.10370514512346</v>
+        <v>16.88164762848152</v>
       </c>
       <c r="N25">
-        <v>22.75092111551031</v>
+        <v>16.26554707525247</v>
       </c>
       <c r="O25">
         <v>0</v>
